--- a/dup/dup_Kantor_Polisi.xlsx
+++ b/dup/dup_Kantor_Polisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -512,22 +507,21 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.799455</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.799455</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.362605</v>
       </c>
-      <c r="I2" t="b">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polresta+Yogyakarta/@-7.7994546,110.2905068,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a5789121ec1bb:0x80385781dba92dd7!8m2!3d-7.7994546!4d110.3626046!15sChRLYW50b3IgUG9saXNpIEJhbnR1bJIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1hm1wzz9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -546,25 +540,24 @@
           <t>0819-9710-2007</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>-7.799647</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.799647</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.362429</v>
       </c>
-      <c r="I3" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.8466976,110.2722048,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Bantul!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sChRLYW50b3IgUG9saXNpIEJhbnR1bFoWIhRrYW50b3IgcG9saXNpIGJhbnR1bJIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -588,22 +581,21 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-7.800092</v>
+      </c>
       <c r="G4" t="n">
-        <v>-7.800092</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.362464</v>
       </c>
-      <c r="I4" t="b">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Reskrim+dan+Narkoba/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578900b0ada7:0x7f9fe3612c5dba69!8m2!3d-7.8000918!4d110.3624642!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDHN0YXRlX3BvbGljZeABAA!16s%2Fg%2F11qt498c_q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -622,25 +614,24 @@
           <t>(0274) 868424</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>-7.697103</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.697103</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.346522</v>
       </c>
-      <c r="I5" t="b">
+      <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Resor+Sleman/@-7.6971026,110.2744244,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f43b7a7e645:0x117ed5382f99a2c1!8m2!3d-7.6971026!4d110.3465222!15sChRLYW50b3IgUG9saXNpIFNsZW1hbuABAA!16s%2Fg%2F11b6d0l7cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Resor+Sleman/@-7.6971026,110.2744244,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f43b7a7e645:0x117ed5382f99a2c1!8m2!3d-7.6971026!4d110.3465222!15sChRLYW50b3IgUG9saXNpIFNsZW1hbuABAA!16s%2Fg%2F11b6d0l7cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -660,22 +651,21 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-7.696581</v>
+      </c>
       <c r="G6" t="n">
-        <v>-7.696581</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.346708</v>
       </c>
-      <c r="I6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Narkoba+Polresta+Sleman/@-7.7449698,110.2926637,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Sleman!3m6!1s0x2e7a5f0b02037cb5:0x881722a7240efd71!8m2!3d-7.696581!4d110.3467075!15sChRLYW50b3IgUG9saXNpIFNsZW1hbpIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11r95dg_2q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
